--- a/data/trans_orig/CLASESOCIAL_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>151680</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132173</v>
+        <v>129265</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174840</v>
+        <v>173384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2596639318455285</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2262696015076248</v>
+        <v>0.221291247467665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2993106601844325</v>
+        <v>0.2968187097169884</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>575</v>
@@ -765,19 +765,19 @@
         <v>598256</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>568158</v>
+        <v>566361</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>629418</v>
+        <v>626183</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6486333733716518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.616000609467577</v>
+        <v>0.6140528224897793</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.682419380035398</v>
+        <v>0.6789126003415833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>722</v>
@@ -786,19 +786,19 @@
         <v>749936</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>709060</v>
+        <v>711666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>788226</v>
+        <v>786893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4978089479912006</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.470675238290755</v>
+        <v>0.4724050516382957</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.523225520306555</v>
+        <v>0.5223409622962075</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>275225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251189</v>
+        <v>248869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297514</v>
+        <v>298277</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4711617678722735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.430015118396073</v>
+        <v>0.4260426292921387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5093183988838804</v>
+        <v>0.5106257921302083</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>169</v>
@@ -836,19 +836,19 @@
         <v>177362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>154511</v>
+        <v>153903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>205482</v>
+        <v>202441</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1922967980717176</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1675219748777856</v>
+        <v>0.1668622168053422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.222785486833842</v>
+        <v>0.2194876796908422</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>440</v>
@@ -857,19 +857,19 @@
         <v>452587</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>418625</v>
+        <v>417776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>488730</v>
+        <v>489594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3004277830248916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.277884024008876</v>
+        <v>0.2773203431806472</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3244198633458945</v>
+        <v>0.3249935144889625</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>80199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64310</v>
+        <v>64174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98249</v>
+        <v>99258</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1372934928490747</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1100935850929808</v>
+        <v>0.1098604805992212</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1681938861312531</v>
+        <v>0.1699208482692512</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -907,19 +907,19 @@
         <v>35169</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25075</v>
+        <v>24720</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48862</v>
+        <v>48068</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03813019365298899</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02718621341065999</v>
+        <v>0.02680109985144935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05297685959871554</v>
+        <v>0.05211604567100012</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -928,19 +928,19 @@
         <v>115368</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>97259</v>
+        <v>97540</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137130</v>
+        <v>139781</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07658115155188842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06456089910180794</v>
+        <v>0.06474731724836062</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09102690188219058</v>
+        <v>0.09278718321440305</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>45397</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33178</v>
+        <v>33395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60266</v>
+        <v>58787</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07771506617701349</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05679787312952479</v>
+        <v>0.05716884373900286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1031705508110613</v>
+        <v>0.1006388544526721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -978,19 +978,19 @@
         <v>71049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56430</v>
+        <v>55823</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87867</v>
+        <v>88934</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07703201043002969</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06118161435500606</v>
+        <v>0.06052318227845913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09526652948116508</v>
+        <v>0.09642308432037854</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -999,19 +999,19 @@
         <v>116446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96530</v>
+        <v>95873</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137518</v>
+        <v>137918</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07729686797291903</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06407687109767218</v>
+        <v>0.06364033005717874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09128454494752963</v>
+        <v>0.09155038362333817</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>31640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21134</v>
+        <v>22189</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43081</v>
+        <v>43953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05416574125610987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03617970930287232</v>
+        <v>0.03798541423023861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07375153586988614</v>
+        <v>0.07524415717236702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -1049,19 +1049,19 @@
         <v>40497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28590</v>
+        <v>29451</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>55178</v>
+        <v>54576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04390762447361186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03099768333587366</v>
+        <v>0.03193069325528422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05982488552918708</v>
+        <v>0.05917167668357139</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>68</v>
@@ -1070,19 +1070,19 @@
         <v>72138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>56979</v>
+        <v>56892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90327</v>
+        <v>91021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04788524945910039</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03782287502050423</v>
+        <v>0.03776513819907281</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05995945019450519</v>
+        <v>0.06041967372212568</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>212623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>186760</v>
+        <v>185686</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>238492</v>
+        <v>239961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1976563040005044</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1736134797166234</v>
+        <v>0.1726154941457523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2217041046738107</v>
+        <v>0.2230692866314232</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>580</v>
@@ -1195,19 +1195,19 @@
         <v>593927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>562778</v>
+        <v>563024</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>625047</v>
+        <v>626159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5616124458772686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5321584942940643</v>
+        <v>0.5323914431527382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5910397077763118</v>
+        <v>0.5920910659196154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>787</v>
@@ -1216,19 +1216,19 @@
         <v>806550</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>756232</v>
+        <v>760542</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>851813</v>
+        <v>851116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3780831530240089</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3544960706213008</v>
+        <v>0.3565161512981456</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3993009954541241</v>
+        <v>0.3989743902049416</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>475407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>443171</v>
+        <v>442906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>507710</v>
+        <v>510763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.44194215765232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4119750055490969</v>
+        <v>0.4117293735536065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4719718300767165</v>
+        <v>0.4748099009439907</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -1266,19 +1266,19 @@
         <v>257067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228714</v>
+        <v>231961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>283288</v>
+        <v>283669</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2430806389537011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2162700274147453</v>
+        <v>0.2193410311364704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.26787533469245</v>
+        <v>0.2682352181863331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>719</v>
@@ -1287,19 +1287,19 @@
         <v>732474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>689272</v>
+        <v>687237</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>777062</v>
+        <v>775509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3433589684092339</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3231072561399165</v>
+        <v>0.3221535752377456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3642605192565057</v>
+        <v>0.3635322997487399</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>196883</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>171550</v>
+        <v>170417</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>220891</v>
+        <v>222577</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1830242972838798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.159474634332923</v>
+        <v>0.1584207735368883</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2053423817633723</v>
+        <v>0.2069097101342586</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -1337,19 +1337,19 @@
         <v>59256</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45483</v>
+        <v>45890</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74958</v>
+        <v>75161</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603239253423429</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04300846427949671</v>
+        <v>0.04339368659115372</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07088005390385965</v>
+        <v>0.07107196562231265</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>253</v>
@@ -1358,19 +1358,19 @@
         <v>256140</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>225741</v>
+        <v>226337</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>284456</v>
+        <v>286502</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1200695986564011</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1058195306364745</v>
+        <v>0.1060991117763987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1333432578822668</v>
+        <v>0.1343024491003135</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>99806</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80549</v>
+        <v>83616</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121943</v>
+        <v>121648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09278048045326474</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0748789637820705</v>
+        <v>0.07773032820418435</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1133588481796748</v>
+        <v>0.1130853848879624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -1408,19 +1408,19 @@
         <v>97861</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81057</v>
+        <v>80451</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118877</v>
+        <v>117397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09253669729616322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07664726090606555</v>
+        <v>0.07607390083430741</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1124091118663479</v>
+        <v>0.1110094589762848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -1429,19 +1429,19 @@
         <v>197667</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170790</v>
+        <v>170447</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224511</v>
+        <v>224187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09265962790588357</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08006049949881616</v>
+        <v>0.07989994087220235</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1052433501005411</v>
+        <v>0.1050914787646086</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>91003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73423</v>
+        <v>74098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112428</v>
+        <v>113396</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0845967606100311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06825467733830844</v>
+        <v>0.06888236546539199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1045142629562193</v>
+        <v>0.1054139764482706</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -1479,19 +1479,19 @@
         <v>49427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37986</v>
+        <v>36423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65627</v>
+        <v>64470</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04673782533863286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03591948761142231</v>
+        <v>0.03444132464011737</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06205673143464704</v>
+        <v>0.06096260983002411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>131</v>
@@ -1500,19 +1500,19 @@
         <v>140430</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120273</v>
+        <v>116882</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168768</v>
+        <v>166756</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06582865200447252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05637969630804429</v>
+        <v>0.05479008995191832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07911270828685651</v>
+        <v>0.07816942168428151</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>203821</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>180229</v>
+        <v>181522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>232707</v>
+        <v>229934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1821669371666023</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1610813635123174</v>
+        <v>0.1622365963054772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2079834245608696</v>
+        <v>0.2055049465827728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>476</v>
@@ -1625,19 +1625,19 @@
         <v>478887</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>447754</v>
+        <v>447495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>511047</v>
+        <v>510261</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4823284256917209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4509717087912691</v>
+        <v>0.4507105666296096</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5147191672649246</v>
+        <v>0.5139274538063949</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>686</v>
@@ -1646,19 +1646,19 @@
         <v>682709</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>646519</v>
+        <v>637375</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>730879</v>
+        <v>725567</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3232925688555618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.306154969998244</v>
+        <v>0.3018249688352675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3461034337113704</v>
+        <v>0.3435879768014699</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>368561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>335921</v>
+        <v>333618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>402639</v>
+        <v>397473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3294047712514107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3002316891448501</v>
+        <v>0.2981734032284551</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.35986142201674</v>
+        <v>0.3552445331812724</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>200</v>
@@ -1696,19 +1696,19 @@
         <v>201532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176974</v>
+        <v>178527</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>227288</v>
+        <v>228356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2029798961045397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1782455450849721</v>
+        <v>0.1798097529373125</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2289213650736411</v>
+        <v>0.2299972511221302</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>565</v>
@@ -1717,19 +1717,19 @@
         <v>570093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>528872</v>
+        <v>530284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>610932</v>
+        <v>610490</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2699641333002601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2504442794035157</v>
+        <v>0.2511127235596889</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2893031806224408</v>
+        <v>0.2890938849421213</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>201454</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>178702</v>
+        <v>175139</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>228718</v>
+        <v>229560</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1800507460652568</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1597162758887717</v>
+        <v>0.15653157757218</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2044187140580409</v>
+        <v>0.205170697210057</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -1767,19 +1767,19 @@
         <v>47655</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35578</v>
+        <v>35497</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62806</v>
+        <v>61971</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04799772142074413</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0358341401039204</v>
+        <v>0.03575211617155768</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06325746521352274</v>
+        <v>0.0624157911640615</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>239</v>
@@ -1788,19 +1788,19 @@
         <v>249109</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>217896</v>
+        <v>219975</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>280861</v>
+        <v>279192</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1179639453535291</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.103183458924985</v>
+        <v>0.1041677007155357</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.132999772918402</v>
+        <v>0.1322096591704285</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>152407</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>131354</v>
+        <v>130995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175622</v>
+        <v>178686</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1362153173516487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.117398486625857</v>
+        <v>0.1170775964683931</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.156963835305113</v>
+        <v>0.1597024631397809</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -1838,19 +1838,19 @@
         <v>136870</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115224</v>
+        <v>116768</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161032</v>
+        <v>157290</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1378535078011508</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1160523768891329</v>
+        <v>0.1176073784767397</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1621894875970865</v>
+        <v>0.1584200531318229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>276</v>
@@ -1859,19 +1859,19 @@
         <v>289277</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>258518</v>
+        <v>260222</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>320221</v>
+        <v>323052</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1369855382855493</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1224194753618924</v>
+        <v>0.1232266081927465</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1516388704626222</v>
+        <v>0.1529791258124445</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>192627</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166401</v>
+        <v>169959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217748</v>
+        <v>221617</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1721622281650816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1487218300705296</v>
+        <v>0.1519019338325703</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1946143496799967</v>
+        <v>0.1980718440943174</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -1909,19 +1909,19 @@
         <v>127921</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>109152</v>
+        <v>108042</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>151713</v>
+        <v>150249</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1288404489818444</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1099360831941447</v>
+        <v>0.1088186101711078</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1528034377868517</v>
+        <v>0.1513283985537452</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>314</v>
@@ -1930,19 +1930,19 @@
         <v>320549</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>289201</v>
+        <v>287676</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>353279</v>
+        <v>355506</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1517938142050997</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1369495083833901</v>
+        <v>0.1362269759663493</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1672928515525406</v>
+        <v>0.168347721244642</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>71835</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57384</v>
+        <v>56814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88184</v>
+        <v>87047</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1611593578287155</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1287373508305891</v>
+        <v>0.1274597841882926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.197837216899548</v>
+        <v>0.1952850032258126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -2055,19 +2055,19 @@
         <v>116850</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99298</v>
+        <v>99163</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134683</v>
+        <v>134394</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3425097911062875</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2910618358141238</v>
+        <v>0.2906647667155013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3947814227914818</v>
+        <v>0.3939357772805139</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>190</v>
@@ -2076,19 +2076,19 @@
         <v>188685</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166822</v>
+        <v>167614</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>211653</v>
+        <v>213514</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2397833376760083</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2119987683496015</v>
+        <v>0.21300561816382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2689704588803641</v>
+        <v>0.2713361942007578</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>102626</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87412</v>
+        <v>84978</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>123639</v>
+        <v>123223</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2302361432415551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1961041911364447</v>
+        <v>0.1906438187882098</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.277377511850368</v>
+        <v>0.2764456089041663</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -2126,19 +2126,19 @@
         <v>56504</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>44652</v>
+        <v>44131</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72737</v>
+        <v>72326</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1656252617732709</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1308836639902987</v>
+        <v>0.1293562435881501</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2132070004899296</v>
+        <v>0.2120021646785476</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>155</v>
@@ -2147,19 +2147,19 @@
         <v>159130</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>139110</v>
+        <v>137421</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>184209</v>
+        <v>183639</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2022242738973948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.17678201954662</v>
+        <v>0.174636593412971</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.234094299054405</v>
+        <v>0.2333710559656285</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>55072</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41809</v>
+        <v>40574</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70393</v>
+        <v>70594</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1235513366947719</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09379590745548702</v>
+        <v>0.09102662138095516</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1579239425001822</v>
+        <v>0.1583739339003158</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2197,19 +2197,19 @@
         <v>22772</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14625</v>
+        <v>14538</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34551</v>
+        <v>33871</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06674990368155197</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04286989378817041</v>
+        <v>0.04261241519974898</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.101274358505009</v>
+        <v>0.09928239340199516</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>76</v>
@@ -2218,19 +2218,19 @@
         <v>77844</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62125</v>
+        <v>62095</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96053</v>
+        <v>95876</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09892523217538962</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07894861357305318</v>
+        <v>0.0789105146050514</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1220658120273797</v>
+        <v>0.1218403537721104</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>63600</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49639</v>
+        <v>50476</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80924</v>
+        <v>80603</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1426830576943234</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1113637697210115</v>
+        <v>0.1132405772860964</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1815489760643078</v>
+        <v>0.1808293876532056</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -2268,19 +2268,19 @@
         <v>60335</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46373</v>
+        <v>47904</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73306</v>
+        <v>75274</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1768532378162681</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1359291108835448</v>
+        <v>0.1404151342714614</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.21487477531088</v>
+        <v>0.2206411917972051</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -2289,19 +2289,19 @@
         <v>123935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>105077</v>
+        <v>104676</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>148040</v>
+        <v>144798</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1574974449815822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1335325735881345</v>
+        <v>0.1330239337486759</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1881313529235543</v>
+        <v>0.1840105375213735</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>152608</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132815</v>
+        <v>132402</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>175315</v>
+        <v>174342</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3423701045406342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2979634730617562</v>
+        <v>0.2970369514939082</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3933109546936637</v>
+        <v>0.3911282199252513</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>83</v>
@@ -2339,19 +2339,19 @@
         <v>84697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70001</v>
+        <v>69340</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>100849</v>
+        <v>101982</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2482618056226215</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2051856244088643</v>
+        <v>0.2032479055435989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2956071617236977</v>
+        <v>0.2989280703836818</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>231</v>
@@ -2360,19 +2360,19 @@
         <v>237305</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>210810</v>
+        <v>213649</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>261457</v>
+        <v>265177</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3015697112696251</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2679000871196023</v>
+        <v>0.2715070099775078</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3322627066872385</v>
+        <v>0.3369904406900978</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>639960</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>597021</v>
+        <v>599090</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>687736</v>
+        <v>685372</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1984695895591194</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1851528867681977</v>
+        <v>0.1857943839516856</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2132860109879064</v>
+        <v>0.2125530901923902</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1748</v>
@@ -2485,19 +2485,19 @@
         <v>1787920</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1725513</v>
+        <v>1731236</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1842889</v>
+        <v>1843903</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5395221871978221</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5206901894338561</v>
+        <v>0.5224174152318755</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5561095475792824</v>
+        <v>0.5564154983553677</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2385</v>
@@ -2506,19 +2506,19 @@
         <v>2427880</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2344947</v>
+        <v>2355269</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2506152</v>
+        <v>2504745</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3713280266996172</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3586438674757669</v>
+        <v>0.3602226054102637</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3832990824569006</v>
+        <v>0.3830839556205923</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>1221819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1171691</v>
+        <v>1166978</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1280055</v>
+        <v>1276113</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3789202696061748</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.363373954672935</v>
+        <v>0.3619124166102579</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3969807750227889</v>
+        <v>0.3957581896995943</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>673</v>
@@ -2556,19 +2556,19 @@
         <v>692465</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>648489</v>
+        <v>644946</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>742982</v>
+        <v>736594</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2089580089644336</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1956879081945485</v>
+        <v>0.1946187993841834</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2242020555279866</v>
+        <v>0.2222742862231525</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1879</v>
@@ -2577,19 +2577,19 @@
         <v>1914284</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1839837</v>
+        <v>1844526</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1988072</v>
+        <v>1987169</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2927769270519548</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2813908079237945</v>
+        <v>0.2821079191567579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3040623540778498</v>
+        <v>0.3039241442744677</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>533608</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>495569</v>
+        <v>489925</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>574251</v>
+        <v>577986</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1654866149706248</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.153689696082259</v>
+        <v>0.1519395285094155</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1780911667892553</v>
+        <v>0.1792495951865056</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>161</v>
@@ -2627,19 +2627,19 @@
         <v>164853</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>140600</v>
+        <v>140124</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>191223</v>
+        <v>190139</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04974589957910736</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04242731367717201</v>
+        <v>0.04228364639613547</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05770324656481506</v>
+        <v>0.05737626068798335</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>684</v>
@@ -2648,19 +2648,19 @@
         <v>698460</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>650860</v>
+        <v>650811</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>750292</v>
+        <v>745864</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1068248152522857</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09954469872920188</v>
+        <v>0.09953715422765096</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1147522029246935</v>
+        <v>0.1140749073276743</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>361210</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>325508</v>
+        <v>322307</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>403815</v>
+        <v>396344</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1120212163231393</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1009492433336109</v>
+        <v>0.09995651345542995</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.125234371449798</v>
+        <v>0.1229172266857848</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>357</v>
@@ -2698,19 +2698,19 @@
         <v>366115</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>330328</v>
+        <v>331414</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>406012</v>
+        <v>403574</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1104788221853697</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09967981413619056</v>
+        <v>0.100007342061554</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1225181556976323</v>
+        <v>0.1217823693502594</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>702</v>
@@ -2719,19 +2719,19 @@
         <v>727325</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>678468</v>
+        <v>674216</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>781539</v>
+        <v>782617</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1112394722697134</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.103767110135737</v>
+        <v>0.1031167823645646</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1195311178917528</v>
+        <v>0.119695968433875</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>467879</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>426151</v>
+        <v>429548</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>508714</v>
+        <v>513493</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1451023095409418</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1321613467500933</v>
+        <v>0.1332147789386384</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1577662559355093</v>
+        <v>0.1592485181141436</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>294</v>
@@ -2769,19 +2769,19 @@
         <v>302542</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>267582</v>
+        <v>271833</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>334898</v>
+        <v>336173</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09129508207326724</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08074540301121085</v>
+        <v>0.08202814720758207</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1010587987643474</v>
+        <v>0.1014434046000714</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>744</v>
@@ -2790,19 +2790,19 @@
         <v>770421</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>717548</v>
+        <v>716569</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>826368</v>
+        <v>828496</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.117830758726429</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1097440818236029</v>
+        <v>0.1095944506634946</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1263874780518727</v>
+        <v>0.1267128378036002</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>265097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>237704</v>
+        <v>236507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>290695</v>
+        <v>295126</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2546595240575155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2283454713827122</v>
+        <v>0.2271953986096281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2792496132348852</v>
+        <v>0.2835068268310639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>612</v>
@@ -3155,19 +3155,19 @@
         <v>659671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>623228</v>
+        <v>626497</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>695621</v>
+        <v>695723</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5906047972361552</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5579771638784032</v>
+        <v>0.5609037973202183</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6227905115950645</v>
+        <v>0.6228818288481294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>865</v>
@@ -3176,19 +3176,19 @@
         <v>924768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>878581</v>
+        <v>879004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>970051</v>
+        <v>974584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4285446639246625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4071412619563531</v>
+        <v>0.4073375953192442</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4495295071784406</v>
+        <v>0.4516299593348991</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>441776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410841</v>
+        <v>408256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>473950</v>
+        <v>476086</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4243822401858393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3946655092996246</v>
+        <v>0.3921828710660899</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4552899276718517</v>
+        <v>0.4573419708229982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -3226,19 +3226,19 @@
         <v>278835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249297</v>
+        <v>248711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307767</v>
+        <v>311042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2496410030418864</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2231958729092807</v>
+        <v>0.2226713973263589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2755443651156733</v>
+        <v>0.2784765691612671</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>666</v>
@@ -3247,19 +3247,19 @@
         <v>720610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>676919</v>
+        <v>671633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>765752</v>
+        <v>763656</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3339362452955427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3136893983912917</v>
+        <v>0.3112401783658211</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3548553790375314</v>
+        <v>0.3538844320446888</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>212739</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>188907</v>
+        <v>188452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>241887</v>
+        <v>242042</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2043632802275195</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1814693327132512</v>
+        <v>0.1810320800027153</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2323639474795837</v>
+        <v>0.232512221082192</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -3297,19 +3297,19 @@
         <v>74101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59481</v>
+        <v>58617</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93503</v>
+        <v>90952</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0663429118269775</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05325382761669367</v>
+        <v>0.05248015118514743</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0837137204476664</v>
+        <v>0.08142939310657714</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>271</v>
@@ -3318,19 +3318,19 @@
         <v>286840</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>254938</v>
+        <v>255956</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>321559</v>
+        <v>319718</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1329239924031556</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1181402349238966</v>
+        <v>0.1186122063389536</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1490130482396103</v>
+        <v>0.1481597217536146</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>57248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42877</v>
+        <v>42606</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76033</v>
+        <v>74579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05499374398547075</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04118839655105178</v>
+        <v>0.04092886497842378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07303910612850414</v>
+        <v>0.07164318926333903</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -3368,19 +3368,19 @@
         <v>58602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44353</v>
+        <v>45515</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75787</v>
+        <v>74809</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05246610103720668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03970974520192809</v>
+        <v>0.04074922145431629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06785252655126953</v>
+        <v>0.06697663189753959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -3389,19 +3389,19 @@
         <v>115849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94268</v>
+        <v>95013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138528</v>
+        <v>140150</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05368543700012617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0436845232387855</v>
+        <v>0.04402973156092792</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06419501023679355</v>
+        <v>0.06494682742757507</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>64126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47719</v>
+        <v>49557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81689</v>
+        <v>83344</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06160121154365495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0458399784871372</v>
+        <v>0.04760562943751594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07847283254333942</v>
+        <v>0.08006238249231828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -3439,19 +3439,19 @@
         <v>45733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34186</v>
+        <v>33149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62983</v>
+        <v>61934</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0409451868577742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03060650101531856</v>
+        <v>0.02967826245399729</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05638853120346771</v>
+        <v>0.05544980252945595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>97</v>
@@ -3460,19 +3460,19 @@
         <v>109859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89848</v>
+        <v>91638</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133816</v>
+        <v>136218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05090966137651305</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04163618364981139</v>
+        <v>0.04246589443775483</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06201150270887034</v>
+        <v>0.06312428836443884</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>243502</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>217525</v>
+        <v>218106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>271914</v>
+        <v>271153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2494590543585606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2228467425685229</v>
+        <v>0.2234415913275887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2785665864642786</v>
+        <v>0.2777872867180058</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>578</v>
@@ -3585,19 +3585,19 @@
         <v>616898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>583728</v>
+        <v>585303</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>652301</v>
+        <v>649319</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5648812964858143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5345082220349409</v>
+        <v>0.5359500816671843</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5972990122076397</v>
+        <v>0.5945682889129319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>812</v>
@@ -3606,19 +3606,19 @@
         <v>860399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>816238</v>
+        <v>812994</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>907488</v>
+        <v>902837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4160131073621939</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3946607170778479</v>
+        <v>0.3930922975486316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4387813375492118</v>
+        <v>0.4365321187122964</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>368436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>338831</v>
+        <v>336922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>397711</v>
+        <v>398637</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3774499665906385</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3471209244614161</v>
+        <v>0.3451649435350156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4074413834382909</v>
+        <v>0.4083901960810369</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -3656,19 +3656,19 @@
         <v>229161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204217</v>
+        <v>201395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257881</v>
+        <v>256648</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2098380840361751</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1869972469415239</v>
+        <v>0.1844130824746186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2361361600342091</v>
+        <v>0.2350073149217265</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>562</v>
@@ -3677,19 +3677,19 @@
         <v>597597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>555543</v>
+        <v>561075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637614</v>
+        <v>643424</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2889449893171834</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2686114859039012</v>
+        <v>0.2712861943143923</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3082939806658082</v>
+        <v>0.3111030053089051</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>179954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>156807</v>
+        <v>154483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>205895</v>
+        <v>205963</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1843570121719174</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1606437298124054</v>
+        <v>0.1582625349106692</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.210931811216974</v>
+        <v>0.2110016815020069</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -3727,19 +3727,19 @@
         <v>79045</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>63883</v>
+        <v>63071</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101324</v>
+        <v>97853</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07238010085560188</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05849662481492406</v>
+        <v>0.05775245914453088</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09278039308776349</v>
+        <v>0.08960236809129682</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>241</v>
@@ -3748,19 +3748,19 @@
         <v>258999</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>230067</v>
+        <v>229577</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>294074</v>
+        <v>290432</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1252292591739645</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1112402137867638</v>
+        <v>0.111003149302627</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1421880192865555</v>
+        <v>0.1404272816108769</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>105915</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87038</v>
+        <v>87937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128050</v>
+        <v>127897</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1085061195039225</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0891670644724198</v>
+        <v>0.09008795082476444</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1311826537956018</v>
+        <v>0.1310258022658757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -3798,19 +3798,19 @@
         <v>100491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81869</v>
+        <v>81093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122816</v>
+        <v>122244</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09201720371765471</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07496553411052417</v>
+        <v>0.07425547514710343</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1124599068308424</v>
+        <v>0.1119364961826783</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -3819,19 +3819,19 @@
         <v>206405</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182109</v>
+        <v>179503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>237805</v>
+        <v>236185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09979939122973021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08805179965031214</v>
+        <v>0.08679160217126843</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1149816359807861</v>
+        <v>0.1141983683004226</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>78312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62216</v>
+        <v>61609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99218</v>
+        <v>97807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.080227847374961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06373773591873987</v>
+        <v>0.06311578748510142</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.10164588688124</v>
+        <v>0.1001993723650355</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -3869,19 +3869,19 @@
         <v>66490</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51730</v>
+        <v>51590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83610</v>
+        <v>84852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06088331490475399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04736831593632686</v>
+        <v>0.04724001942809218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07655990889600817</v>
+        <v>0.07769690364746268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -3890,19 +3890,19 @@
         <v>144802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123098</v>
+        <v>122748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>171471</v>
+        <v>173053</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07001325291692807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05951937430840482</v>
+        <v>0.05935000452617031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08290817938804527</v>
+        <v>0.08367318547251346</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>183393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>159468</v>
+        <v>160056</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>209931</v>
+        <v>208176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2074224818500016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1803630221073847</v>
+        <v>0.1810273677046585</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2374382910937783</v>
+        <v>0.2354529375968356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>396</v>
@@ -4015,19 +4015,19 @@
         <v>419876</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>387578</v>
+        <v>392471</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>448478</v>
+        <v>453331</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.48108070732449</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4440748901861833</v>
+        <v>0.4496812674252558</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5138513624266481</v>
+        <v>0.5194117119098381</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>576</v>
@@ -4036,19 +4036,19 @@
         <v>603269</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>561785</v>
+        <v>565803</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>643256</v>
+        <v>651429</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3433658203527745</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3197540760522463</v>
+        <v>0.3220409914332463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3661253382224395</v>
+        <v>0.3707772137616693</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>244972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>217753</v>
+        <v>220936</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>278524</v>
+        <v>276392</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2770699725563828</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2462844866866377</v>
+        <v>0.2498848141355358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3150187263225875</v>
+        <v>0.3126072181193038</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -4086,19 +4086,19 @@
         <v>179113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>156814</v>
+        <v>154671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207129</v>
+        <v>203672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2052216517800714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1796729853762172</v>
+        <v>0.17721762730079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2373220355620415</v>
+        <v>0.2333603506076412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -4107,19 +4107,19 @@
         <v>424084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>386548</v>
+        <v>388329</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>459648</v>
+        <v>464580</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2413783701014789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2200134161929199</v>
+        <v>0.2210274359720138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2616204623092496</v>
+        <v>0.2644274863760864</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>157306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>134191</v>
+        <v>135461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182272</v>
+        <v>181724</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1779177120291497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1517740769112828</v>
+        <v>0.1532106411445641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.206154603198289</v>
+        <v>0.2055349441794667</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -4157,19 +4157,19 @@
         <v>72941</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57660</v>
+        <v>56821</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>90894</v>
+        <v>91363</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08357338704972053</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06606458590622433</v>
+        <v>0.06510339804108231</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1041438675423429</v>
+        <v>0.1046812886222025</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>217</v>
@@ -4178,19 +4178,19 @@
         <v>230247</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>201562</v>
+        <v>202673</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>260295</v>
+        <v>261089</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1310509223163377</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1147238540018932</v>
+        <v>0.1153564935775325</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1481534224953812</v>
+        <v>0.1486055247992671</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>152608</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>129958</v>
+        <v>129367</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>178536</v>
+        <v>177989</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1726038664074059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1469857567046645</v>
+        <v>0.1463177355338783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2019293392424689</v>
+        <v>0.201311027828671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -4228,19 +4228,19 @@
         <v>94641</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75641</v>
+        <v>77241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>115401</v>
+        <v>116544</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1084371541977253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08666734205678241</v>
+        <v>0.08850073327680785</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.132222930560765</v>
+        <v>0.1335328309618103</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>224</v>
@@ -4249,19 +4249,19 @@
         <v>247249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>219293</v>
+        <v>214604</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>279720</v>
+        <v>278907</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1407282044812716</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1248164233234225</v>
+        <v>0.1221473418044715</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1592094888959323</v>
+        <v>0.1587470721792294</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>145873</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123522</v>
+        <v>122583</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169776</v>
+        <v>167571</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.16498596715706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1397071374068959</v>
+        <v>0.1386443928255742</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1920209647617473</v>
+        <v>0.189528040026376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>97</v>
@@ -4299,19 +4299,19 @@
         <v>106206</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88403</v>
+        <v>87932</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>128160</v>
+        <v>127555</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1216870996479927</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1012892216562677</v>
+        <v>0.1007492562454699</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.146841207396376</v>
+        <v>0.1461482173235379</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>235</v>
@@ -4320,19 +4320,19 @@
         <v>252078</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>224695</v>
+        <v>222013</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283874</v>
+        <v>283721</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1434766827481374</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1278905669721967</v>
+        <v>0.1263643809376116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1615742914347917</v>
+        <v>0.1614869061823649</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>82601</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68246</v>
+        <v>67135</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101181</v>
+        <v>100987</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1642099097934841</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1356708557629539</v>
+        <v>0.133463650075334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2011455833889572</v>
+        <v>0.2007609492061752</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>152</v>
@@ -4445,19 +4445,19 @@
         <v>164584</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144097</v>
+        <v>146386</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>186925</v>
+        <v>188872</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3635328038249895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3182804122250524</v>
+        <v>0.3233356660973111</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4128785926163402</v>
+        <v>0.4171798172579564</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>234</v>
@@ -4466,19 +4466,19 @@
         <v>247185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>223769</v>
+        <v>222742</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>277131</v>
+        <v>279066</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2586276845958231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2341275447350368</v>
+        <v>0.2330526291514785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2899589839475146</v>
+        <v>0.2919838328652476</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>98363</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>80128</v>
+        <v>80244</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>117325</v>
+        <v>116936</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1955433437080781</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.159292284604531</v>
+        <v>0.1595244785355791</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2332406869445464</v>
+        <v>0.232467118472662</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>72</v>
@@ -4516,19 +4516,19 @@
         <v>77627</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>61988</v>
+        <v>62437</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>96628</v>
+        <v>95725</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.171461873364255</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1369193179349527</v>
+        <v>0.1379104675997685</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2134322100399393</v>
+        <v>0.2114360246428087</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>164</v>
@@ -4537,19 +4537,19 @@
         <v>175990</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>152086</v>
+        <v>150724</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>201943</v>
+        <v>201439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1841361300265784</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1591262294285763</v>
+        <v>0.1577006835390194</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2112911663542703</v>
+        <v>0.2107634464733308</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>78394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>63405</v>
+        <v>62196</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>96214</v>
+        <v>97513</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1558447831192317</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1260484993904101</v>
+        <v>0.123644919001729</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1912720189185952</v>
+        <v>0.1938539573995856</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -4587,19 +4587,19 @@
         <v>32176</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21554</v>
+        <v>23020</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44773</v>
+        <v>44973</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07107006214269911</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04760748520435886</v>
+        <v>0.05084535476007247</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09889394565445947</v>
+        <v>0.09933651039339438</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>104</v>
@@ -4608,19 +4608,19 @@
         <v>110569</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>90744</v>
+        <v>90842</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>132110</v>
+        <v>133325</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1156876272993477</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09494405839616703</v>
+        <v>0.09504713147833696</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1382255045093668</v>
+        <v>0.1394966763364555</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>97955</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79191</v>
+        <v>81419</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>117998</v>
+        <v>119697</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1947334362601317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.157429340815672</v>
+        <v>0.1618585518085464</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2345786706467721</v>
+        <v>0.2379559576972033</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -4658,19 +4658,19 @@
         <v>83342</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65305</v>
+        <v>66666</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>102582</v>
+        <v>103452</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1840862507016787</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1442458561409146</v>
+        <v>0.1472517166248793</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2265819448896798</v>
+        <v>0.228504503053088</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>155</v>
@@ -4679,19 +4679,19 @@
         <v>181298</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>157268</v>
+        <v>154179</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210112</v>
+        <v>207512</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1896899435232771</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1645482366231005</v>
+        <v>0.1613162229729021</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2198382573871314</v>
+        <v>0.2171173759151184</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>145710</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>124232</v>
+        <v>123300</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167181</v>
+        <v>165788</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2896685271190744</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2469714427193734</v>
+        <v>0.2451184580062226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3323531810678889</v>
+        <v>0.3295827874797827</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -4729,19 +4729,19 @@
         <v>95006</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78023</v>
+        <v>77964</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114685</v>
+        <v>113689</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2098490099663776</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1723362720403048</v>
+        <v>0.1722067291341583</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2533146184307025</v>
+        <v>0.2511162446047999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>216</v>
@@ -4750,19 +4750,19 @@
         <v>240716</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>214714</v>
+        <v>213728</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>269113</v>
+        <v>273528</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2518586145549735</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.22465260882521</v>
+        <v>0.2236215563050899</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2815703878198592</v>
+        <v>0.2861900938976193</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>774592</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>729079</v>
+        <v>721274</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>825578</v>
+        <v>825265</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2275350707563601</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2141655584988068</v>
+        <v>0.2118730734687284</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2425121484694783</v>
+        <v>0.2424201942997658</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1738</v>
@@ -4875,19 +4875,19 @@
         <v>1861029</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1797344</v>
+        <v>1792036</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1919716</v>
+        <v>1919768</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5265268667457252</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5085089680433368</v>
+        <v>0.5070072548113339</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5431308077312821</v>
+        <v>0.5431455088853602</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2487</v>
@@ -4896,19 +4896,19 @@
         <v>2635621</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2558252</v>
+        <v>2551361</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2718273</v>
+        <v>2715207</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3798374391889032</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3686871477619212</v>
+        <v>0.3676940942525495</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3917488831129831</v>
+        <v>0.3913070480145</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>1153545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1099263</v>
+        <v>1096865</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1208811</v>
+        <v>1216278</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3388519237022865</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3229064375417351</v>
+        <v>0.3222020965989026</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3550862107450211</v>
+        <v>0.357279471224374</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>709</v>
@@ -4946,19 +4946,19 @@
         <v>764735</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>715514</v>
+        <v>714687</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>813733</v>
+        <v>822358</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2163606214643348</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2024348865212893</v>
+        <v>0.2022008486419366</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2302234362048632</v>
+        <v>0.2326635107193225</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1787</v>
@@ -4967,19 +4967,19 @@
         <v>1918280</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1837896</v>
+        <v>1848345</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1991863</v>
+        <v>1999028</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2764565145523643</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2648717655768241</v>
+        <v>0.2663776826720334</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2870609802159234</v>
+        <v>0.2880935664976144</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>628393</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>578345</v>
+        <v>581641</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>675557</v>
+        <v>676228</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1845892522780858</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1698879222726282</v>
+        <v>0.1708560720195239</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1984437222958305</v>
+        <v>0.1986407095035763</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>243</v>
@@ -5017,19 +5017,19 @@
         <v>258263</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>228382</v>
+        <v>228666</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>290931</v>
+        <v>289482</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07306843790227145</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0646143852623447</v>
+        <v>0.06469481800112102</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08231083615089602</v>
+        <v>0.08190089896366599</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>833</v>
@@ -5038,19 +5038,19 @@
         <v>886656</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>829269</v>
+        <v>830465</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>939096</v>
+        <v>949511</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1277820609544594</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1195115678252485</v>
+        <v>0.1196840397396281</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1353395555511586</v>
+        <v>0.1368405055099825</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>413726</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>374626</v>
+        <v>374602</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>458906</v>
+        <v>458955</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1215311480946799</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1100456023424133</v>
+        <v>0.1100386017961575</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1348027763965655</v>
+        <v>0.1348173288472649</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>304</v>
@@ -5088,19 +5088,19 @@
         <v>337076</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>302149</v>
+        <v>300948</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>378823</v>
+        <v>374826</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09536632631525019</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08548468672887891</v>
+        <v>0.08514482751679175</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1071774738690865</v>
+        <v>0.1060467303517509</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>675</v>
@@ -5109,19 +5109,19 @@
         <v>750801</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>699489</v>
+        <v>699042</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>806321</v>
+        <v>808237</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1082031425103251</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1008081563056588</v>
+        <v>0.1007437091159827</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1162044734861862</v>
+        <v>0.1164806151021766</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>434020</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>395645</v>
+        <v>395048</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>480303</v>
+        <v>477062</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1274926051685877</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1162201042966998</v>
+        <v>0.1160446465690328</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1410882493027887</v>
+        <v>0.1401362348410773</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>282</v>
@@ -5159,19 +5159,19 @@
         <v>313435</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>281705</v>
+        <v>276510</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>354213</v>
+        <v>352140</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08867774757241841</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07970053836099905</v>
+        <v>0.07823101243722348</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1002147590121292</v>
+        <v>0.09962820604543704</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>683</v>
@@ -5180,19 +5180,19 @@
         <v>747455</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>694694</v>
+        <v>695826</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>804477</v>
+        <v>802125</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.107720842793948</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1001171041711285</v>
+        <v>0.1002802433351056</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1159386947773887</v>
+        <v>0.1155996733574681</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>356121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>324112</v>
+        <v>324780</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>387907</v>
+        <v>386542</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3160280017403915</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2876229905381343</v>
+        <v>0.288215599761708</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3442354610232464</v>
+        <v>0.343024234862512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>697</v>
@@ -5545,19 +5545,19 @@
         <v>747086</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>711160</v>
+        <v>712234</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>782980</v>
+        <v>780405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5941884181239387</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5656148184396218</v>
+        <v>0.5664687702714261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6227361721999947</v>
+        <v>0.620688619158049</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1033</v>
@@ -5566,19 +5566,19 @@
         <v>1103207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1052393</v>
+        <v>1052079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1153924</v>
+        <v>1150030</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4627183439298929</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4414054624620523</v>
+        <v>0.4412735350659526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4839905657872316</v>
+        <v>0.482357321996279</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>441010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410464</v>
+        <v>405838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>475297</v>
+        <v>476172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3913599016024548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3642530568251696</v>
+        <v>0.360147463233025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4217872209270995</v>
+        <v>0.4225632006823575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -5616,19 +5616,19 @@
         <v>316268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284006</v>
+        <v>285034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346314</v>
+        <v>345321</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2515412938920326</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2258814481967478</v>
+        <v>0.2266990801837535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2754377504372618</v>
+        <v>0.2746480089910681</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>726</v>
@@ -5637,19 +5637,19 @@
         <v>757278</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>711742</v>
+        <v>717305</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>804092</v>
+        <v>808091</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3176253290268198</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2985262252182792</v>
+        <v>0.3008593817867591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3372604129313782</v>
+        <v>0.3389378362811602</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>192891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>168591</v>
+        <v>168997</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>220325</v>
+        <v>223537</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.171175190406198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1496102799999862</v>
+        <v>0.1499713044525338</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1955203654580737</v>
+        <v>0.1983705148180957</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -5687,19 +5687,19 @@
         <v>54649</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41483</v>
+        <v>40741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72665</v>
+        <v>70760</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04346458396179</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03299309574128349</v>
+        <v>0.03240282740014117</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05779353231813609</v>
+        <v>0.05627851361167104</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>231</v>
@@ -5708,19 +5708,19 @@
         <v>247540</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>221325</v>
+        <v>216998</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>278926</v>
+        <v>278061</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.103825878796284</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09283033981542758</v>
+        <v>0.09101571665349772</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1169899204173824</v>
+        <v>0.1166270713309387</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>84142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67609</v>
+        <v>68394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103896</v>
+        <v>105123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07466940515752385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05999753979328461</v>
+        <v>0.06069392975350914</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09219916784342404</v>
+        <v>0.09328820409594096</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -5758,19 +5758,19 @@
         <v>93946</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76075</v>
+        <v>76560</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114937</v>
+        <v>113599</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07471892009621006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06050559019147927</v>
+        <v>0.06089165487785148</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0914144078959461</v>
+        <v>0.0903501858317651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>167</v>
@@ -5779,19 +5779,19 @@
         <v>178088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>153095</v>
+        <v>149356</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>204997</v>
+        <v>203225</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07469551729595751</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06421261016178353</v>
+        <v>0.06264428989068037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08598198996848024</v>
+        <v>0.08523879413237215</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>52701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39402</v>
+        <v>38986</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67791</v>
+        <v>68088</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0467675010934319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03496592107236255</v>
+        <v>0.03459667231781134</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06015869278813415</v>
+        <v>0.06042255596969929</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -5829,19 +5829,19 @@
         <v>45373</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32701</v>
+        <v>32471</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59417</v>
+        <v>58950</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0360867839260287</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02600830675413517</v>
+        <v>0.02582573252861311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04725652495851406</v>
+        <v>0.0468852495949795</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>94</v>
@@ -5850,19 +5850,19 @@
         <v>98073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>80944</v>
+        <v>79978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>119333</v>
+        <v>119432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04113493095104578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03395042714552388</v>
+        <v>0.03354509514941157</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05005196840313696</v>
+        <v>0.0500931848104234</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>254113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>228237</v>
+        <v>228328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>280166</v>
+        <v>282671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2804986350877933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2519360426149083</v>
+        <v>0.2520366469812768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.309256668336683</v>
+        <v>0.3120223089143451</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>497</v>
@@ -5975,19 +5975,19 @@
         <v>534166</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>500046</v>
+        <v>501693</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>564750</v>
+        <v>564936</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5323346674823678</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4983319743252245</v>
+        <v>0.4999731429768883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5628138916469253</v>
+        <v>0.5629994372913962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>746</v>
@@ -5996,19 +5996,19 @@
         <v>788279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>743175</v>
+        <v>745460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>830544</v>
+        <v>829664</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4128470872946285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3892249548668551</v>
+        <v>0.3904215730315985</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4349830358936601</v>
+        <v>0.4345218593925773</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>325364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297629</v>
+        <v>297432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>352939</v>
+        <v>356180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3591486026153069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3285332696078057</v>
+        <v>0.3283155279811979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3895862499174199</v>
+        <v>0.3931638485472759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -6046,19 +6046,19 @@
         <v>235133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>207851</v>
+        <v>208609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>262167</v>
+        <v>264144</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2343267619061478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2071380768426918</v>
+        <v>0.2078942172738629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2612677583502989</v>
+        <v>0.2632389075331604</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>541</v>
@@ -6067,19 +6067,19 @@
         <v>560497</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>521272</v>
+        <v>520243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>600077</v>
+        <v>602536</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.293550454239216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2730070352907386</v>
+        <v>0.272467950287699</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3142798502823839</v>
+        <v>0.3155677695261103</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>140364</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>119049</v>
+        <v>118673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161209</v>
+        <v>161033</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1549384387138672</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1314104353634716</v>
+        <v>0.1309955890149767</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.177948621902443</v>
+        <v>0.1777539599420151</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -6117,19 +6117,19 @@
         <v>49497</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36476</v>
+        <v>36955</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64860</v>
+        <v>65014</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04932688037887933</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03635112851085002</v>
+        <v>0.03682791938677479</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06463763536786436</v>
+        <v>0.06479098852572239</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>186</v>
@@ -6138,19 +6138,19 @@
         <v>189860</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>164420</v>
+        <v>163878</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>216933</v>
+        <v>215603</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09943595105202353</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08611221323818914</v>
+        <v>0.08582837865025755</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.113614887497619</v>
+        <v>0.1129182730433909</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>96455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78365</v>
+        <v>79038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115664</v>
+        <v>114972</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1064706570477378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08650244127192264</v>
+        <v>0.08724505659461949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1276735085041559</v>
+        <v>0.126910349912542</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -6188,19 +6188,19 @@
         <v>118952</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99483</v>
+        <v>99997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>141591</v>
+        <v>143491</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1185439631606447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09914197346376268</v>
+        <v>0.09965399619934404</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1411053066178586</v>
+        <v>0.1429990358559117</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -6209,19 +6209,19 @@
         <v>215407</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>188666</v>
+        <v>190235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>244699</v>
+        <v>248220</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1128155925276575</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09881046109381952</v>
+        <v>0.09963238401611982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.128156994874922</v>
+        <v>0.1300007757729529</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>89636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72639</v>
+        <v>71884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108775</v>
+        <v>109411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09894366653529477</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08018184458740941</v>
+        <v>0.07934854580817217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1200698007105409</v>
+        <v>0.1207719575848225</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -6259,19 +6259,19 @@
         <v>65693</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51112</v>
+        <v>52054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83419</v>
+        <v>82604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06546772707196036</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05093674541406298</v>
+        <v>0.05187560207177903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08313305641657194</v>
+        <v>0.08232073001808568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>149</v>
@@ -6280,19 +6280,19 @@
         <v>155329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132003</v>
+        <v>133341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181046</v>
+        <v>180616</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08135091488647443</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06913404973677022</v>
+        <v>0.06983511999289861</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09481956794224282</v>
+        <v>0.09459434285213278</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>182669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>161187</v>
+        <v>160647</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>207039</v>
+        <v>207270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2227012566306594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1965112821258607</v>
+        <v>0.195853059873168</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2524118169578576</v>
+        <v>0.2526936170070156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>302</v>
@@ -6405,19 +6405,19 @@
         <v>329707</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>302124</v>
+        <v>302871</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>358507</v>
+        <v>357061</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4319004809298803</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3957685306249817</v>
+        <v>0.39674708286981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4696268119693692</v>
+        <v>0.4677326775344408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>478</v>
@@ -6426,19 +6426,19 @@
         <v>512376</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>475473</v>
+        <v>476592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>551558</v>
+        <v>550049</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3235455159992756</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3002428822960458</v>
+        <v>0.3009495517063401</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.348287306470563</v>
+        <v>0.347334760899263</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>251289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>222974</v>
+        <v>226611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>276308</v>
+        <v>279461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3063597695817151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2718390024133592</v>
+        <v>0.2762734985862348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3368611144897103</v>
+        <v>0.3407049771294881</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -6476,19 +6476,19 @@
         <v>172329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150597</v>
+        <v>150989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198647</v>
+        <v>195286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2257426337039634</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.197274645643651</v>
+        <v>0.1977891700245034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2602176456205169</v>
+        <v>0.2558153847896995</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -6497,19 +6497,19 @@
         <v>423618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389777</v>
+        <v>388074</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>458517</v>
+        <v>461678</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2674983665949487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.246129102981265</v>
+        <v>0.2450538863250119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2895359806507828</v>
+        <v>0.2915316914967612</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>132499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>112228</v>
+        <v>112046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>155655</v>
+        <v>155482</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1615366991259763</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1368226199670669</v>
+        <v>0.1366016080921486</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1897673526351102</v>
+        <v>0.1895563463150138</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -6547,19 +6547,19 @@
         <v>34574</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24223</v>
+        <v>23888</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49210</v>
+        <v>49032</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04529017760534426</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03173083604981176</v>
+        <v>0.03129242276227726</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06446228959712974</v>
+        <v>0.06423015668674177</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>158</v>
@@ -6568,19 +6568,19 @@
         <v>167073</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>141246</v>
+        <v>143578</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>190590</v>
+        <v>193895</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1055001894008793</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08919161782742077</v>
+        <v>0.09066387575033852</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1203502745352983</v>
+        <v>0.1224371614111782</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>116050</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96301</v>
+        <v>96136</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>138468</v>
+        <v>136527</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1414825510299935</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1174055497999298</v>
+        <v>0.1172039841284592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1688132785865612</v>
+        <v>0.166446871042668</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97</v>
@@ -6618,19 +6618,19 @@
         <v>99183</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82841</v>
+        <v>80390</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117915</v>
+        <v>119421</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1299249045896034</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1085183399644146</v>
+        <v>0.1053077909047542</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1544634165117522</v>
+        <v>0.1564359613347703</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>206</v>
@@ -6639,19 +6639,19 @@
         <v>215233</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>187948</v>
+        <v>186004</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>242471</v>
+        <v>243114</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1359112000881831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1186818134534521</v>
+        <v>0.1174544490178399</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1531108573560161</v>
+        <v>0.1535171076386036</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>137735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116018</v>
+        <v>115725</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159592</v>
+        <v>161584</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1679197236316558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1414439499290048</v>
+        <v>0.1410869249833745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.194567250866265</v>
+        <v>0.1969958884812202</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>124</v>
@@ -6689,19 +6689,19 @@
         <v>127594</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107982</v>
+        <v>107336</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148251</v>
+        <v>151246</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1671418031712086</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.141451016552871</v>
+        <v>0.140605142480323</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.194201615371099</v>
+        <v>0.1981251975244309</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>252</v>
@@ -6710,19 +6710,19 @@
         <v>265329</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>237124</v>
+        <v>234908</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>297401</v>
+        <v>298446</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1675447279167134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1497349095479529</v>
+        <v>0.1483354895868836</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1877972377613108</v>
+        <v>0.1884572490558531</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>106649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90053</v>
+        <v>87937</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127457</v>
+        <v>126648</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2109287995335355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1781053861181969</v>
+        <v>0.1739216354198392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2520839951361677</v>
+        <v>0.2504822819140786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>187</v>
@@ -6835,19 +6835,19 @@
         <v>201190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>179069</v>
+        <v>180203</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>224344</v>
+        <v>224001</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.410844721562109</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3656724237280854</v>
+        <v>0.3679878381803166</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4581268731606046</v>
+        <v>0.4574266110774646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>287</v>
@@ -6856,19 +6856,19 @@
         <v>307839</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>279484</v>
+        <v>274116</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>338390</v>
+        <v>336344</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3092881574901631</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2808005290768049</v>
+        <v>0.2754066087637251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3399834762618607</v>
+        <v>0.3379276287909623</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>123845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104687</v>
+        <v>105323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146051</v>
+        <v>145971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2449392137570329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2070488110221265</v>
+        <v>0.208307016949714</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2888583901698313</v>
+        <v>0.2886999307397287</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>94</v>
@@ -6906,19 +6906,19 @@
         <v>97105</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>80274</v>
+        <v>80706</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>114660</v>
+        <v>116030</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1982957165613087</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1639256102730107</v>
+        <v>0.1648078059291069</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2341445356941845</v>
+        <v>0.2369421835066715</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>211</v>
@@ -6927,19 +6927,19 @@
         <v>220950</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>194999</v>
+        <v>196985</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>248098</v>
+        <v>251363</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2219904441419371</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1959171643358643</v>
+        <v>0.1979127703382226</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2492662433782236</v>
+        <v>0.2525465201002848</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>52042</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40212</v>
+        <v>40907</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66273</v>
+        <v>66223</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1029272967994308</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07953039485111703</v>
+        <v>0.08090568289796672</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1310740786214334</v>
+        <v>0.13097456249133</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -6977,19 +6977,19 @@
         <v>24445</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15187</v>
+        <v>15830</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36109</v>
+        <v>37230</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04991855720637904</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03101354820456098</v>
+        <v>0.0323256925949313</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07373730888080153</v>
+        <v>0.07602739597045546</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -6998,19 +6998,19 @@
         <v>76487</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61174</v>
+        <v>61496</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96760</v>
+        <v>96362</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07684680486283843</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06146199882986381</v>
+        <v>0.06178540015596321</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09721606113671465</v>
+        <v>0.0968160814165946</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>78752</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>62006</v>
+        <v>63069</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>96885</v>
+        <v>97916</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1557554143649936</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1226353394937698</v>
+        <v>0.1247368042155253</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1916173149595703</v>
+        <v>0.1936563016892067</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -7048,19 +7048,19 @@
         <v>58562</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44532</v>
+        <v>43525</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73340</v>
+        <v>73542</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1195888809489028</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09093766952269394</v>
+        <v>0.08888045086007941</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1497663595937689</v>
+        <v>0.1501788608427079</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -7069,19 +7069,19 @@
         <v>137315</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115815</v>
+        <v>115688</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161851</v>
+        <v>162253</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1379613488887322</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1163599194073234</v>
+        <v>0.1162324277366625</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1626128897471116</v>
+        <v>0.1630167367419157</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>144327</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>124199</v>
+        <v>124167</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>164735</v>
+        <v>164074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2854492755450073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2456403662390385</v>
+        <v>0.2455761532381709</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3258115171778634</v>
+        <v>0.3245037396955887</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>98</v>
@@ -7119,19 +7119,19 @@
         <v>108396</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90425</v>
+        <v>89039</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>128537</v>
+        <v>127562</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2213521237213004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1846540154239212</v>
+        <v>0.1818246701532923</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2624823085037261</v>
+        <v>0.2604916220196744</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>228</v>
@@ -7140,19 +7140,19 @@
         <v>252723</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>225742</v>
+        <v>224707</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>282807</v>
+        <v>282844</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2539132446163292</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2268054945661037</v>
+        <v>0.2257654754511398</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2841391005775767</v>
+        <v>0.2841761334942814</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>899551</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>847011</v>
+        <v>849827</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>949259</v>
+        <v>951921</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2678308811573958</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2521877206762367</v>
+        <v>0.2530261802541354</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2826306377235797</v>
+        <v>0.2834233535674462</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1683</v>
@@ -7265,19 +7265,19 @@
         <v>1812149</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1748799</v>
+        <v>1753046</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1874059</v>
+        <v>1874040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5157166056444056</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4976878958769118</v>
+        <v>0.4988966934230554</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5333354667164919</v>
+        <v>0.5333300224575622</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2544</v>
@@ -7286,19 +7286,19 @@
         <v>2711700</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2630287</v>
+        <v>2636045</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2792569</v>
+        <v>2794438</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3945725732626996</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3827263749157172</v>
+        <v>0.3835641374997796</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4063395582182791</v>
+        <v>0.4066116075108607</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1141508</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1088471</v>
+        <v>1083656</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1198442</v>
+        <v>1195553</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3398706889924036</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3240795446070342</v>
+        <v>0.3226459654362</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3568221864860486</v>
+        <v>0.3559618052312684</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>793</v>
@@ -7336,19 +7336,19 @@
         <v>820835</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>775049</v>
+        <v>774972</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>872506</v>
+        <v>873024</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.233600176881084</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2205700014922504</v>
+        <v>0.2205480923608238</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2483050321216581</v>
+        <v>0.2484524600433673</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1889</v>
@@ -7357,19 +7357,19 @@
         <v>1962343</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1883223</v>
+        <v>1886761</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2041176</v>
+        <v>2035889</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2855355530996078</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2740230547094393</v>
+        <v>0.2745377688218479</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2970062945989531</v>
+        <v>0.2962370311480603</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>517796</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>471967</v>
+        <v>472414</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>560795</v>
+        <v>556902</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1541676439963632</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1405227343070567</v>
+        <v>0.1406558634051753</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.166970118070383</v>
+        <v>0.1658110914770676</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>151</v>
@@ -7407,19 +7407,19 @@
         <v>163164</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>140830</v>
+        <v>138025</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>193173</v>
+        <v>188625</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04643471749330202</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04007858099432214</v>
+        <v>0.03928038793336214</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05497474652101001</v>
+        <v>0.05368035676182036</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>649</v>
@@ -7428,19 +7428,19 @@
         <v>680960</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>626874</v>
+        <v>629706</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>726697</v>
+        <v>733450</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09908478906911289</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09121490645499288</v>
+        <v>0.09162694463107539</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1057398120972164</v>
+        <v>0.1067224652439459</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>375400</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>338297</v>
+        <v>341390</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>413848</v>
+        <v>415740</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1117708843093675</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.10072401223444</v>
+        <v>0.1016448476224504</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1232183280833359</v>
+        <v>0.1237816979264091</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>351</v>
@@ -7478,19 +7478,19 @@
         <v>370643</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>333498</v>
+        <v>334310</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>406322</v>
+        <v>410436</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1054806568613843</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09490977137784348</v>
+        <v>0.09514088564151431</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1156344399900679</v>
+        <v>0.1168054302820342</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>703</v>
@@ -7499,19 +7499,19 @@
         <v>746043</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>697194</v>
+        <v>698246</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>800656</v>
+        <v>803940</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1085547488415649</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1014469076308035</v>
+        <v>0.1016000287805125</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1165014367356113</v>
+        <v>0.1169792901460915</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>424399</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>385282</v>
+        <v>390497</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>462136</v>
+        <v>466154</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1263599015444699</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1147132701870959</v>
+        <v>0.1162659183488091</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1375956440316658</v>
+        <v>0.1387918569374739</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>332</v>
@@ -7549,19 +7549,19 @@
         <v>347055</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>311275</v>
+        <v>313334</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>384517</v>
+        <v>385561</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09876784311982408</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0885851830325831</v>
+        <v>0.08917135672363588</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1094292038724048</v>
+        <v>0.1097261029231285</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>723</v>
@@ -7570,19 +7570,19 @@
         <v>771454</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>715583</v>
+        <v>716725</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>827099</v>
+        <v>824581</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1122523357270149</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1041226481215126</v>
+        <v>0.1042888568246227</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1203490414184298</v>
+        <v>0.1199826467479158</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>198014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174468</v>
+        <v>175043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>222955</v>
+        <v>221485</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4103348992534216</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.361541309703058</v>
+        <v>0.3627346991334658</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4620195121231476</v>
+        <v>0.4589725974919747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>545</v>
@@ -7935,19 +7935,19 @@
         <v>395408</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>374229</v>
+        <v>375190</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>417773</v>
+        <v>416587</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6525783299570201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6176239530925925</v>
+        <v>0.6192107755405585</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6894881871485509</v>
+        <v>0.6875320006275041</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>721</v>
@@ -7956,19 +7956,19 @@
         <v>593422</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>559744</v>
+        <v>560754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>625151</v>
+        <v>624443</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5451825838700031</v>
+        <v>0.545182583870003</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.514242014686756</v>
+        <v>0.5151701614394369</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5743322223685072</v>
+        <v>0.5736818165633959</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>174480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152382</v>
+        <v>153277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198775</v>
+        <v>199327</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.361566600512386</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3157737982292381</v>
+        <v>0.317629155818016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4119126361883699</v>
+        <v>0.4130559926646571</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>201</v>
@@ -8006,19 +8006,19 @@
         <v>141586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123322</v>
+        <v>123861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>159531</v>
+        <v>161068</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2336719778185799</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2035293627527633</v>
+        <v>0.2044197186887635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2632879126208423</v>
+        <v>0.2658258660170167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>363</v>
@@ -8027,19 +8027,19 @@
         <v>316066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>286267</v>
+        <v>287776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>344411</v>
+        <v>345747</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2903725388402945</v>
+        <v>0.2903725388402944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2629964647237809</v>
+        <v>0.2643830718996705</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3164139734527502</v>
+        <v>0.3176412647130094</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>63353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48389</v>
+        <v>47373</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80608</v>
+        <v>78120</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1312842573340857</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1002744811557721</v>
+        <v>0.09816991016846086</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1670397527008882</v>
+        <v>0.1618841943733792</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -8077,19 +8077,19 @@
         <v>22385</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14759</v>
+        <v>15979</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30804</v>
+        <v>31290</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03694362675267183</v>
+        <v>0.03694362675267182</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02435790362388023</v>
+        <v>0.02637102127713643</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05083882045511608</v>
+        <v>0.05164020266540734</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>96</v>
@@ -8098,19 +8098,19 @@
         <v>85738</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>70180</v>
+        <v>68979</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105638</v>
+        <v>104060</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07876842414008803</v>
+        <v>0.07876842414008801</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06447542083992566</v>
+        <v>0.06337134900112813</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09705084856767666</v>
+        <v>0.09560129232007854</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>17906</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11602</v>
+        <v>11152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29077</v>
+        <v>27384</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03710478159501542</v>
+        <v>0.03710478159501543</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02404201868199233</v>
+        <v>0.02311037345017261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06025579169588006</v>
+        <v>0.05674723132419417</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -8148,19 +8148,19 @@
         <v>28242</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20713</v>
+        <v>20482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38127</v>
+        <v>39635</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04661029181021996</v>
+        <v>0.04661029181021997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03418524573725533</v>
+        <v>0.03380302086773209</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06292416594955134</v>
+        <v>0.06541397463342009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -8169,19 +8169,19 @@
         <v>46147</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35309</v>
+        <v>35784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58544</v>
+        <v>60543</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04239613682350029</v>
+        <v>0.04239613682350028</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03243909150493329</v>
+        <v>0.03287467295846772</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05378486063311055</v>
+        <v>0.05562145479536806</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>28814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17951</v>
+        <v>19112</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42592</v>
+        <v>43058</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05970946130509121</v>
+        <v>0.05970946130509122</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03719855445499303</v>
+        <v>0.0396048373785876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08826070519094843</v>
+        <v>0.08922752972613013</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -8219,19 +8219,19 @@
         <v>18296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11914</v>
+        <v>12324</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26954</v>
+        <v>27373</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03019577366150814</v>
+        <v>0.03019577366150813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0196633423446516</v>
+        <v>0.02033868277386777</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0444850599228304</v>
+        <v>0.04517647113424777</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -8240,19 +8240,19 @@
         <v>47110</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35538</v>
+        <v>34269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62700</v>
+        <v>63802</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.04328031632611422</v>
+        <v>0.04328031632611421</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03264926515598741</v>
+        <v>0.03148356672991216</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05760297492256874</v>
+        <v>0.05861564143273322</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>249478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>218454</v>
+        <v>218321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>278900</v>
+        <v>281248</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2640126882187571</v>
+        <v>0.2640126882187572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2311807704432751</v>
+        <v>0.2310406953145546</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2951493175452886</v>
+        <v>0.2976334213184237</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>945</v>
@@ -8365,19 +8365,19 @@
         <v>626077</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>596750</v>
+        <v>596043</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>653225</v>
+        <v>652990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5702363028251977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5435245690021023</v>
+        <v>0.5428807895208304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5949627306742628</v>
+        <v>0.5947490772287938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1168</v>
@@ -8386,19 +8386,19 @@
         <v>875555</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>830222</v>
+        <v>834978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>918221</v>
+        <v>920436</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4285901488432347</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4063991264875116</v>
+        <v>0.4087273250885493</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4494755434150465</v>
+        <v>0.4505596911009015</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>384201</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>348791</v>
+        <v>349333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>414227</v>
+        <v>417786</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4065842966816882</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3691119212058325</v>
+        <v>0.369685258743816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4383601637880817</v>
+        <v>0.4421268011351959</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>366</v>
@@ -8436,19 +8436,19 @@
         <v>266972</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244569</v>
+        <v>240458</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>293510</v>
+        <v>292589</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2431599103263371</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2227554012966831</v>
+        <v>0.2190114679600989</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2673316688432824</v>
+        <v>0.2664920791194167</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>742</v>
@@ -8457,19 +8457,19 @@
         <v>651172</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>611422</v>
+        <v>608615</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>694948</v>
+        <v>691986</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3187531522905412</v>
+        <v>0.3187531522905413</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2992950418798987</v>
+        <v>0.2979208875949066</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3401814774469671</v>
+        <v>0.3387318472387911</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>135844</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115390</v>
+        <v>113103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>159584</v>
+        <v>159835</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1437587332307686</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.122112854421161</v>
+        <v>0.1196922292953905</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1688809470825804</v>
+        <v>0.1691468009948601</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -8507,19 +8507,19 @@
         <v>59812</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48279</v>
+        <v>48364</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73727</v>
+        <v>74411</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05447683837025651</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04397254340796117</v>
+        <v>0.04405010989316431</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06715137942501247</v>
+        <v>0.06777438471424166</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>231</v>
@@ -8528,19 +8528,19 @@
         <v>195656</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>172216</v>
+        <v>171233</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>225663</v>
+        <v>223011</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09577488471285084</v>
+        <v>0.09577488471285085</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08430101776420951</v>
+        <v>0.08381970180059153</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1104633226310515</v>
+        <v>0.1091653278882145</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>108556</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87282</v>
+        <v>88806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>130083</v>
+        <v>131152</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1148808835395819</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09236739530586843</v>
+        <v>0.09397942685241764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1376616381887008</v>
+        <v>0.1387927965410222</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -8578,19 +8578,19 @@
         <v>85760</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71942</v>
+        <v>72428</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103366</v>
+        <v>103530</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07811077414278801</v>
+        <v>0.07811077414278803</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06552495462372986</v>
+        <v>0.06596813945216699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09414625990898089</v>
+        <v>0.09429612315135304</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>218</v>
@@ -8599,19 +8599,19 @@
         <v>194316</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171036</v>
+        <v>171093</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222423</v>
+        <v>223730</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09511907895378592</v>
+        <v>0.09511907895378595</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08372311633207193</v>
+        <v>0.08375109207866178</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1088773685338939</v>
+        <v>0.1095175575842016</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>66868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49679</v>
+        <v>49510</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87085</v>
+        <v>89641</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07076339832920414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0525732565925813</v>
+        <v>0.05239402333972206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09215895623904193</v>
+        <v>0.09486359395661607</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -8649,19 +8649,19 @@
         <v>59306</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46957</v>
+        <v>45924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74468</v>
+        <v>75360</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05401617433542072</v>
+        <v>0.05401617433542071</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04276886377153867</v>
+        <v>0.04182756901202307</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06782587571457656</v>
+        <v>0.06863867915692258</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>130</v>
@@ -8670,19 +8670,19 @@
         <v>126173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105103</v>
+        <v>103180</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>151860</v>
+        <v>150817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06176273519958728</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0514488424199648</v>
+        <v>0.05050723745941397</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07433635402890812</v>
+        <v>0.07382604135402868</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>190854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>162484</v>
+        <v>163031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>221465</v>
+        <v>222098</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1849721705313628</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1574773083740029</v>
+        <v>0.158007170740548</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2146405023135102</v>
+        <v>0.2152534556732589</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>563</v>
@@ -8795,19 +8795,19 @@
         <v>383743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>356056</v>
+        <v>357193</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>412785</v>
+        <v>410446</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.373696435455768</v>
+        <v>0.3736964354557681</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3467345028709297</v>
+        <v>0.3478420133909384</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4019778729976783</v>
+        <v>0.3997007028243946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>709</v>
@@ -8816,19 +8816,19 @@
         <v>574597</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>537163</v>
+        <v>535551</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>615261</v>
+        <v>615909</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2791091663299818</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2609256819166289</v>
+        <v>0.2601426724466576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2988619094879933</v>
+        <v>0.2991765740495294</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>320765</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>287455</v>
+        <v>289030</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>357632</v>
+        <v>352959</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3108798204867477</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2785965117543926</v>
+        <v>0.2801228738750842</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3466108052614736</v>
+        <v>0.3420817542537933</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>386</v>
@@ -8866,19 +8866,19 @@
         <v>262619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>238815</v>
+        <v>240115</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>286699</v>
+        <v>287328</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2557437637754368</v>
+        <v>0.2557437637754369</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2325629140656049</v>
+        <v>0.2338289066878004</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2791928869292216</v>
+        <v>0.2798054924165677</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>724</v>
@@ -8887,19 +8887,19 @@
         <v>583384</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>545955</v>
+        <v>545864</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>623500</v>
+        <v>623950</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2833775661207598</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2651967265287741</v>
+        <v>0.2651524769729987</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.302863703637538</v>
+        <v>0.3030825409232402</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>167806</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>145101</v>
+        <v>144901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>196987</v>
+        <v>194493</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1626351374149907</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1406291499099513</v>
+        <v>0.1404360693784982</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1909161638117045</v>
+        <v>0.1884994950302081</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>98</v>
@@ -8937,19 +8937,19 @@
         <v>63428</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52374</v>
+        <v>52580</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78444</v>
+        <v>78292</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06176750330295286</v>
+        <v>0.06176750330295288</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05100303036153136</v>
+        <v>0.05120323985964385</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07639074169200577</v>
+        <v>0.07624192457398411</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>274</v>
@@ -8958,19 +8958,19 @@
         <v>231234</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>204353</v>
+        <v>204228</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>259669</v>
+        <v>259363</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1123216493617985</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09926411838748017</v>
+        <v>0.09920340400137775</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1261336251919508</v>
+        <v>0.1259849546628623</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>178305</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>151390</v>
+        <v>153509</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>205111</v>
+        <v>205835</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1728105441008305</v>
+        <v>0.1728105441008304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1467250001368974</v>
+        <v>0.1487783604466578</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.198790628921411</v>
+        <v>0.1994922440373756</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -9008,19 +9008,19 @@
         <v>149449</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>130181</v>
+        <v>131603</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>169690</v>
+        <v>171375</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.145536810546158</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1267731387927384</v>
+        <v>0.1281577219989682</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1652475737245544</v>
+        <v>0.1668888504422849</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>384</v>
@@ -9029,19 +9029,19 @@
         <v>327755</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>296504</v>
+        <v>295433</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>362036</v>
+        <v>359722</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1592062132423832</v>
+        <v>0.1592062132423833</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1440260575968388</v>
+        <v>0.1435061479127615</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1758583075434529</v>
+        <v>0.1747341463397725</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>174066</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152310</v>
+        <v>150258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>201309</v>
+        <v>200585</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1687023274660683</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1476166140466392</v>
+        <v>0.1456273688341403</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1951058419541016</v>
+        <v>0.1944038756090688</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -9079,19 +9079,19 @@
         <v>167644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>148666</v>
+        <v>148171</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>189949</v>
+        <v>190389</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1632554869196842</v>
+        <v>0.1632554869196843</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1447735924982952</v>
+        <v>0.1442921942073445</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1849756965488083</v>
+        <v>0.1854049092566308</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>413</v>
@@ -9100,19 +9100,19 @@
         <v>341711</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>309388</v>
+        <v>310084</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>374405</v>
+        <v>374750</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1659854049450767</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1502846670528742</v>
+        <v>0.1506225052368371</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1818665568629153</v>
+        <v>0.1820338352114274</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>137522</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>110970</v>
+        <v>110865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>167988</v>
+        <v>168724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1466646800209714</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.118346712345052</v>
+        <v>0.1182354131142111</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1791559872208354</v>
+        <v>0.1799404395051315</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>364</v>
@@ -9225,19 +9225,19 @@
         <v>250623</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>227012</v>
+        <v>225906</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>275485</v>
+        <v>278498</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2868639418073931</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2598381696926176</v>
+        <v>0.2585725263829937</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3153211741711187</v>
+        <v>0.3187696888802294</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>462</v>
@@ -9246,19 +9246,19 @@
         <v>388146</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>350624</v>
+        <v>351235</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>425138</v>
+        <v>423447</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2142874940475465</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1935722274095092</v>
+        <v>0.1939099854647558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2347103281633093</v>
+        <v>0.2337766805028195</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>240501</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>213586</v>
+        <v>212548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>272744</v>
+        <v>273008</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.256489147438913</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2277851940247513</v>
+        <v>0.2266776102054858</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2908751546042083</v>
+        <v>0.2911571426879201</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -9296,19 +9296,19 @@
         <v>184283</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>165027</v>
+        <v>163923</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>206934</v>
+        <v>205155</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2109304420416636</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1888898243769491</v>
+        <v>0.187626681205403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2368568220048461</v>
+        <v>0.2348203170162328</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>502</v>
@@ -9317,19 +9317,19 @@
         <v>424784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>389832</v>
+        <v>388050</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>462050</v>
+        <v>461382</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.23451465325746</v>
+        <v>0.2345146532574601</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2152182097856165</v>
+        <v>0.2142346908093399</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2550885334342923</v>
+        <v>0.2547199348915549</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>103602</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84765</v>
+        <v>83784</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>123867</v>
+        <v>123353</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1104894653869742</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09040049984167925</v>
+        <v>0.08935372016937632</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.132101692764603</v>
+        <v>0.1315528063052157</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -9367,19 +9367,19 @@
         <v>40684</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30832</v>
+        <v>30615</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52053</v>
+        <v>52213</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04656750250143578</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03529060530358943</v>
+        <v>0.0350424317343349</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05958013801038775</v>
+        <v>0.05976321563202813</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>173</v>
@@ -9388,19 +9388,19 @@
         <v>144287</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>123959</v>
+        <v>120616</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>171400</v>
+        <v>167885</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07965775519575088</v>
+        <v>0.0796577551957509</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06843549936854773</v>
+        <v>0.06658959173300441</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09462671372564578</v>
+        <v>0.09268609288910325</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>177231</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>151714</v>
+        <v>152780</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>204435</v>
+        <v>202582</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.189012403987127</v>
+        <v>0.1890124039871271</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.161799658220509</v>
+        <v>0.1629363502805801</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2180253743426508</v>
+        <v>0.2160490107686218</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>226</v>
@@ -9438,19 +9438,19 @@
         <v>157243</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>137323</v>
+        <v>138269</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>177696</v>
+        <v>178267</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1799801370543491</v>
+        <v>0.179980137054349</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1571797588717527</v>
+        <v>0.1582632246198665</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2033909438428972</v>
+        <v>0.2040443940430183</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>408</v>
@@ -9459,19 +9459,19 @@
         <v>334473</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>304648</v>
+        <v>306420</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>367709</v>
+        <v>367648</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1846558382017515</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1681901271483666</v>
+        <v>0.1691682526839649</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2030049852552664</v>
+        <v>0.2029712094883312</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>278810</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>251408</v>
+        <v>253166</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>307612</v>
+        <v>315936</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2973443031660145</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2681206097039242</v>
+        <v>0.2699961683419501</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3280609519178346</v>
+        <v>0.3369386739598648</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>348</v>
@@ -9509,19 +9509,19 @@
         <v>240833</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>217827</v>
+        <v>217431</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>264625</v>
+        <v>265969</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2756579765951583</v>
+        <v>0.2756579765951584</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2493253445706267</v>
+        <v>0.248871435671491</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3028907694678046</v>
+        <v>0.304428163320578</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>640</v>
@@ -9530,19 +9530,19 @@
         <v>519643</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>483121</v>
+        <v>481668</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>557248</v>
+        <v>557036</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.286884259297491</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2667213723092149</v>
+        <v>0.26591901169381</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.307645518905493</v>
+        <v>0.3075285724991251</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>775868</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>718059</v>
+        <v>721539</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>834454</v>
+        <v>841016</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2283995839800803</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2113819858878191</v>
+        <v>0.2124063513861802</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.245646243451862</v>
+        <v>0.2475779492078221</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2417</v>
@@ -9655,19 +9655,19 @@
         <v>1655852</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1602834</v>
+        <v>1602670</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1710835</v>
+        <v>1712699</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4593981810857841</v>
+        <v>0.459398181085784</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4446891308625678</v>
+        <v>0.44464356700709</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4746526915498069</v>
+        <v>0.4751700067054355</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3060</v>
@@ -9676,19 +9676,19 @@
         <v>2431719</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2348562</v>
+        <v>2349433</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2514079</v>
+        <v>2513771</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3473206001459917</v>
+        <v>0.3473206001459916</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3354433643117914</v>
+        <v>0.3355676436541835</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.359083966492069</v>
+        <v>0.3590399777398028</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1119946</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1062474</v>
+        <v>1060481</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1182499</v>
+        <v>1184244</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3296892329576408</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3127707001527997</v>
+        <v>0.3121839083829613</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3481034908965332</v>
+        <v>0.348617168649033</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1222</v>
@@ -9726,19 +9726,19 @@
         <v>855459</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>812001</v>
+        <v>807840</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>904363</v>
+        <v>898911</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2373379782192928</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.225280789915339</v>
+        <v>0.2241264567615956</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.250905884298962</v>
+        <v>0.2493932657548639</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2331</v>
@@ -9747,19 +9747,19 @@
         <v>1975405</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1902764</v>
+        <v>1895855</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2043358</v>
+        <v>2045969</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2821456322808985</v>
+        <v>0.2821456322808984</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2717703313507308</v>
+        <v>0.2707835273563259</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2918512266981065</v>
+        <v>0.2922241332328286</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>470606</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>427075</v>
+        <v>431253</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>511194</v>
+        <v>518146</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1385368499853012</v>
+        <v>0.1385368499853013</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1257222089861495</v>
+        <v>0.1269520446543781</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1504849418101418</v>
+        <v>0.1525316417097973</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>287</v>
@@ -9797,19 +9797,19 @@
         <v>186309</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>165399</v>
+        <v>163461</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>208469</v>
+        <v>208080</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05168937456463013</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04588826863739456</v>
+        <v>0.04535045361096941</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05783747748956329</v>
+        <v>0.0577295964088986</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>774</v>
@@ -9818,19 +9818,19 @@
         <v>656915</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>612638</v>
+        <v>605955</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>705015</v>
+        <v>703450</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.09382666491112879</v>
+        <v>0.09382666491112877</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08750263623699139</v>
+        <v>0.0865481337958966</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1006967703087198</v>
+        <v>0.1004731689802356</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>481998</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>439932</v>
+        <v>441745</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>524689</v>
+        <v>526379</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1418902400854799</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.129506914087402</v>
+        <v>0.1300407935748318</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1544577130777424</v>
+        <v>0.154955363601321</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>587</v>
@@ -9868,19 +9868,19 @@
         <v>420694</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>389394</v>
+        <v>388382</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>453466</v>
+        <v>455729</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1167169665390337</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1080330427317179</v>
+        <v>0.1077522808474098</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1258092667866268</v>
+        <v>0.1264371333462335</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1067</v>
@@ -9889,19 +9889,19 @@
         <v>902691</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>840332</v>
+        <v>845576</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>957537</v>
+        <v>956934</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.128930718651694</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.120023941972585</v>
+        <v>0.120773019686455</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1367642239321205</v>
+        <v>0.1366780843712116</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>548557</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>506806</v>
+        <v>500665</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>596860</v>
+        <v>593899</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1614840929914977</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1491933201544849</v>
+        <v>0.1473856135833262</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1757034949133629</v>
+        <v>0.1748317054068894</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>683</v>
@@ -9939,19 +9939,19 @@
         <v>486079</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>449860</v>
+        <v>450688</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>525360</v>
+        <v>523089</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1348574995912593</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.124808674889121</v>
+        <v>0.1250386320558528</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1457555035849374</v>
+        <v>0.1451253843065672</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1235</v>
@@ -9960,19 +9960,19 @@
         <v>1034637</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>978225</v>
+        <v>980629</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1093030</v>
+        <v>1093923</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1477763840102871</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1397191187680888</v>
+        <v>0.1400624378037968</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1561166406841932</v>
+        <v>0.1562441416752184</v>
       </c>
     </row>
     <row r="33">
